--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed4/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.968</v>
+        <v>6.228</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.652</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>13.03</v>
+        <v>13.024</v>
       </c>
     </row>
     <row r="7">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.406</v>
+        <v>-20.912</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>13.03</v>
+        <v>12.519</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.590000000000001</v>
+        <v>6.528999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>12.254</v>
       </c>
     </row>
     <row r="12">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.43</v>
+        <v>-21.825</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.398</v>
+        <v>-21.828</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.792</v>
+        <v>-12.282</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.616</v>
+        <v>13.188</v>
       </c>
     </row>
     <row r="22">
